--- a/output/mysiadlo/sheets/mysiadlo_long_term_monthly_average_noise_levels.xlsx
+++ b/output/mysiadlo/sheets/mysiadlo_long_term_monthly_average_noise_levels.xlsx
@@ -145,7 +145,7 @@
       <row>1</row>
       <rowOff>0</rowOff>
     </from>
-    <ext cx="6096000" cy="4572000"/>
+    <ext cx="15516225" cy="5943600"/>
     <pic>
       <nvPicPr>
         <cNvPr id="1" name="Image 1" descr="Picture"/>
@@ -487,10 +487,10 @@
         </is>
       </c>
       <c r="B2" t="n">
-        <v>46.11935483870968</v>
+        <v>55.00777444674557</v>
       </c>
       <c r="C2" t="n">
-        <v>41.99677419354839</v>
+        <v>49.42223034776408</v>
       </c>
     </row>
     <row r="3">
@@ -500,10 +500,10 @@
         </is>
       </c>
       <c r="B3" t="n">
-        <v>54.71428571428572</v>
+        <v>56.13017843715555</v>
       </c>
       <c r="C3" t="n">
-        <v>49.33928571428572</v>
+        <v>49.79519147954</v>
       </c>
     </row>
     <row r="4">
@@ -513,10 +513,10 @@
         </is>
       </c>
       <c r="B4" t="n">
-        <v>53.63548387096775</v>
+        <v>55.85356104483979</v>
       </c>
       <c r="C4" t="n">
-        <v>49.13225806451613</v>
+        <v>49.79297732036963</v>
       </c>
     </row>
     <row r="5">
@@ -526,10 +526,10 @@
         </is>
       </c>
       <c r="B5" t="n">
-        <v>54.84666666666667</v>
+        <v>56.63993304648324</v>
       </c>
       <c r="C5" t="n">
-        <v>48.53</v>
+        <v>51.13093169504265</v>
       </c>
     </row>
     <row r="6">
@@ -539,10 +539,10 @@
         </is>
       </c>
       <c r="B6" t="n">
-        <v>53.38709677419355</v>
+        <v>55.47172594893323</v>
       </c>
       <c r="C6" t="n">
-        <v>49.14516129032258</v>
+        <v>49.98587872977021</v>
       </c>
     </row>
     <row r="7">
@@ -552,10 +552,10 @@
         </is>
       </c>
       <c r="B7" t="n">
-        <v>56.85</v>
+        <v>57.9843366646074</v>
       </c>
       <c r="C7" t="n">
-        <v>52.7</v>
+        <v>53.00423550297129</v>
       </c>
     </row>
     <row r="8">
@@ -565,10 +565,10 @@
         </is>
       </c>
       <c r="B8" t="n">
-        <v>58.50645161290323</v>
+        <v>58.95173650045241</v>
       </c>
       <c r="C8" t="n">
-        <v>52.75483870967742</v>
+        <v>53.18679714505897</v>
       </c>
     </row>
     <row r="9">
@@ -578,10 +578,10 @@
         </is>
       </c>
       <c r="B9" t="n">
-        <v>56.06129032258065</v>
+        <v>57.53911029293445</v>
       </c>
       <c r="C9" t="n">
-        <v>50.54516129032258</v>
+        <v>51.3046083506628</v>
       </c>
     </row>
     <row r="10">
@@ -591,10 +591,10 @@
         </is>
       </c>
       <c r="B10" t="n">
-        <v>57.89666666666667</v>
+        <v>58.74942395267576</v>
       </c>
       <c r="C10" t="n">
-        <v>51.9</v>
+        <v>52.39904456075229</v>
       </c>
     </row>
     <row r="11">
@@ -604,10 +604,10 @@
         </is>
       </c>
       <c r="B11" t="n">
-        <v>55.79677419354839</v>
+        <v>57.79383214332709</v>
       </c>
       <c r="C11" t="n">
-        <v>50.51290322580645</v>
+        <v>51.50053368586903</v>
       </c>
     </row>
     <row r="12">
@@ -617,10 +617,10 @@
         </is>
       </c>
       <c r="B12" t="n">
-        <v>52.34</v>
+        <v>54.99088532068947</v>
       </c>
       <c r="C12" t="n">
-        <v>48.96</v>
+        <v>49.99591742776051</v>
       </c>
     </row>
     <row r="13">
@@ -630,10 +630,10 @@
         </is>
       </c>
       <c r="B13" t="n">
-        <v>56.88709677419355</v>
+        <v>58.04483620080084</v>
       </c>
       <c r="C13" t="n">
-        <v>51.04516129032258</v>
+        <v>51.73981931829268</v>
       </c>
     </row>
     <row r="14">
@@ -643,10 +643,10 @@
         </is>
       </c>
       <c r="B14" t="n">
-        <v>55.21290322580645</v>
+        <v>57.07646194578953</v>
       </c>
       <c r="C14" t="n">
-        <v>49.88709677419355</v>
+        <v>50.82526002399015</v>
       </c>
     </row>
     <row r="15">
@@ -656,10 +656,10 @@
         </is>
       </c>
       <c r="B15" t="n">
-        <v>57.86785714285714</v>
+        <v>58.72151055580156</v>
       </c>
       <c r="C15" t="n">
-        <v>51.68214285714286</v>
+        <v>52.04619038981774</v>
       </c>
     </row>
     <row r="16">
@@ -669,10 +669,10 @@
         </is>
       </c>
       <c r="B16" t="n">
-        <v>58.73225806451613</v>
+        <v>59.07642854503732</v>
       </c>
       <c r="C16" t="n">
-        <v>52.47096774193548</v>
+        <v>52.86440226475352</v>
       </c>
     </row>
     <row r="17">
@@ -682,10 +682,10 @@
         </is>
       </c>
       <c r="B17" t="n">
-        <v>56.00333333333333</v>
+        <v>57.65549999618361</v>
       </c>
       <c r="C17" t="n">
-        <v>50.48</v>
+        <v>51.03110890479256</v>
       </c>
     </row>
     <row r="18">
@@ -695,10 +695,10 @@
         </is>
       </c>
       <c r="B18" t="n">
-        <v>58.27741935483871</v>
+        <v>58.96668148748574</v>
       </c>
       <c r="C18" t="n">
-        <v>50.53548387096774</v>
+        <v>52.85960926483381</v>
       </c>
     </row>
     <row r="19">
@@ -708,10 +708,10 @@
         </is>
       </c>
       <c r="B19" t="n">
-        <v>56.52666666666666</v>
+        <v>57.86202838696927</v>
       </c>
       <c r="C19" t="n">
-        <v>52.42666666666666</v>
+        <v>52.90956998550205</v>
       </c>
     </row>
     <row r="20">
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="B20" t="n">
-        <v>40.7483870967742</v>
+        <v>42.60453529986545</v>
       </c>
       <c r="C20" t="n">
-        <v>43.80322580645161</v>
+        <v>44.29087541235512</v>
       </c>
     </row>
     <row r="21">
@@ -734,10 +734,10 @@
         </is>
       </c>
       <c r="B21" t="n">
-        <v>57.53870967741936</v>
+        <v>58.54066783951197</v>
       </c>
       <c r="C21" t="n">
-        <v>52.01290322580645</v>
+        <v>52.59449838875472</v>
       </c>
     </row>
     <row r="22">
@@ -747,10 +747,10 @@
         </is>
       </c>
       <c r="B22" t="n">
-        <v>58.27333333333333</v>
+        <v>59.15228573511247</v>
       </c>
       <c r="C22" t="n">
-        <v>52.76</v>
+        <v>53.18297284773251</v>
       </c>
     </row>
     <row r="23">
@@ -760,10 +760,10 @@
         </is>
       </c>
       <c r="B23" t="n">
-        <v>58.39032258064516</v>
+        <v>58.83896292709736</v>
       </c>
       <c r="C23" t="n">
-        <v>52.34193548387096</v>
+        <v>52.55919557694381</v>
       </c>
     </row>
     <row r="24">
@@ -773,10 +773,10 @@
         </is>
       </c>
       <c r="B24" t="n">
-        <v>51.82</v>
+        <v>54.45401117898864</v>
       </c>
       <c r="C24" t="n">
-        <v>48.96</v>
+        <v>49.58650481487685</v>
       </c>
     </row>
     <row r="25">
@@ -786,10 +786,10 @@
         </is>
       </c>
       <c r="B25" t="n">
-        <v>57.22903225806451</v>
+        <v>58.1273521092991</v>
       </c>
       <c r="C25" t="n">
-        <v>51.13225806451613</v>
+        <v>51.60277594501748</v>
       </c>
     </row>
     <row r="26">
@@ -799,10 +799,10 @@
         </is>
       </c>
       <c r="B26" t="n">
-        <v>58.36774193548387</v>
+        <v>58.86585318072439</v>
       </c>
       <c r="C26" t="n">
-        <v>51.2483870967742</v>
+        <v>51.44684579486793</v>
       </c>
     </row>
     <row r="27">
@@ -812,10 +812,10 @@
         </is>
       </c>
       <c r="B27" t="n">
-        <v>55.77241379310345</v>
+        <v>57.22755361515128</v>
       </c>
       <c r="C27" t="n">
-        <v>47.62413793103448</v>
+        <v>51.70922332006334</v>
       </c>
     </row>
     <row r="28">
@@ -825,10 +825,10 @@
         </is>
       </c>
       <c r="B28" t="n">
-        <v>47.12580645161291</v>
+        <v>53.46445997808057</v>
       </c>
       <c r="C28" t="n">
-        <v>38.91935483870968</v>
+        <v>49.28094907474301</v>
       </c>
     </row>
     <row r="29">
@@ -838,10 +838,10 @@
         </is>
       </c>
       <c r="B29" t="n">
-        <v>35.94</v>
+        <v>44.40930723623278</v>
       </c>
       <c r="C29" t="n">
-        <v>41.05333333333333</v>
+        <v>45.95705992098412</v>
       </c>
     </row>
     <row r="30">
@@ -851,10 +851,10 @@
         </is>
       </c>
       <c r="B30" t="n">
-        <v>46.54838709677419</v>
+        <v>47.50013192083053</v>
       </c>
       <c r="C30" t="n">
-        <v>36.69354838709678</v>
+        <v>46.41216340218363</v>
       </c>
     </row>
     <row r="31">
@@ -864,10 +864,10 @@
         </is>
       </c>
       <c r="B31" t="n">
-        <v>48.68666666666666</v>
+        <v>49.21443045226017</v>
       </c>
       <c r="C31" t="n">
-        <v>39.78</v>
+        <v>45.22336416341115</v>
       </c>
     </row>
     <row r="32">
@@ -877,10 +877,10 @@
         </is>
       </c>
       <c r="B32" t="n">
-        <v>53.05806451612903</v>
+        <v>53.55768442977514</v>
       </c>
       <c r="C32" t="n">
-        <v>47.80322580645161</v>
+        <v>48.78766407563701</v>
       </c>
     </row>
     <row r="33">
@@ -890,10 +890,10 @@
         </is>
       </c>
       <c r="B33" t="n">
-        <v>52.49032258064516</v>
+        <v>53.77947594150197</v>
       </c>
       <c r="C33" t="n">
-        <v>46.90967741935484</v>
+        <v>49.26831107724205</v>
       </c>
     </row>
     <row r="34">
@@ -903,10 +903,10 @@
         </is>
       </c>
       <c r="B34" t="n">
-        <v>51.33333333333334</v>
+        <v>53.09595194508204</v>
       </c>
       <c r="C34" t="n">
-        <v>46.41333333333333</v>
+        <v>47.81126223370692</v>
       </c>
     </row>
     <row r="35">
@@ -916,10 +916,10 @@
         </is>
       </c>
       <c r="B35" t="n">
-        <v>50.88387096774194</v>
+        <v>52.69299492397196</v>
       </c>
       <c r="C35" t="n">
-        <v>44.5</v>
+        <v>46.01633822194611</v>
       </c>
     </row>
     <row r="36">
@@ -929,10 +929,10 @@
         </is>
       </c>
       <c r="B36" t="n">
-        <v>49.58666666666667</v>
+        <v>51.15627210905254</v>
       </c>
       <c r="C36" t="n">
-        <v>43.74333333333333</v>
+        <v>45.49986386567022</v>
       </c>
     </row>
     <row r="37">
@@ -942,10 +942,10 @@
         </is>
       </c>
       <c r="B37" t="n">
-        <v>44.12258064516129</v>
+        <v>48.5986876151855</v>
       </c>
       <c r="C37" t="n">
-        <v>38.39354838709678</v>
+        <v>43.32228828835322</v>
       </c>
     </row>
     <row r="38">
@@ -955,10 +955,10 @@
         </is>
       </c>
       <c r="B38" t="n">
-        <v>48.84516129032258</v>
+        <v>50.89576809228339</v>
       </c>
       <c r="C38" t="n">
-        <v>38.41290322580645</v>
+        <v>44.39605714668069</v>
       </c>
     </row>
     <row r="39">
@@ -968,10 +968,10 @@
         </is>
       </c>
       <c r="B39" t="n">
-        <v>46.11071428571428</v>
+        <v>50.34698676143647</v>
       </c>
       <c r="C39" t="n">
-        <v>43.03214285714286</v>
+        <v>46.49569705654002</v>
       </c>
     </row>
     <row r="40">
@@ -981,10 +981,10 @@
         </is>
       </c>
       <c r="B40" t="n">
-        <v>52.13548387096775</v>
+        <v>52.61344033895175</v>
       </c>
       <c r="C40" t="n">
-        <v>45.28387096774193</v>
+        <v>47.29139428439838</v>
       </c>
     </row>
     <row r="41">
@@ -994,10 +994,10 @@
         </is>
       </c>
       <c r="B41" t="n">
-        <v>51.71666666666667</v>
+        <v>52.55751551136815</v>
       </c>
       <c r="C41" t="n">
-        <v>45.80666666666666</v>
+        <v>46.71228465649936</v>
       </c>
     </row>
     <row r="42">
@@ -1007,10 +1007,10 @@
         </is>
       </c>
       <c r="B42" t="n">
-        <v>51.35483870967742</v>
+        <v>52.93802949716824</v>
       </c>
       <c r="C42" t="n">
-        <v>44.35483870967742</v>
+        <v>47.23087080560027</v>
       </c>
     </row>
     <row r="43">
@@ -1020,10 +1020,10 @@
         </is>
       </c>
       <c r="B43" t="n">
-        <v>53.9</v>
+        <v>54.91073912406611</v>
       </c>
       <c r="C43" t="n">
-        <v>49.21333333333334</v>
+        <v>49.96854366900644</v>
       </c>
     </row>
     <row r="44">
@@ -1033,10 +1033,10 @@
         </is>
       </c>
       <c r="B44" t="n">
-        <v>55.59677419354838</v>
+        <v>56.81272206224764</v>
       </c>
       <c r="C44" t="n">
-        <v>49.79354838709677</v>
+        <v>50.47223890151986</v>
       </c>
     </row>
     <row r="45">
@@ -1046,10 +1046,10 @@
         </is>
       </c>
       <c r="B45" t="n">
-        <v>56.55483870967742</v>
+        <v>57.18161208467093</v>
       </c>
       <c r="C45" t="n">
-        <v>51.2741935483871</v>
+        <v>51.73290345683897</v>
       </c>
     </row>
     <row r="46">
@@ -1059,10 +1059,10 @@
         </is>
       </c>
       <c r="B46" t="n">
-        <v>54.55333333333333</v>
+        <v>56.35630623496293</v>
       </c>
       <c r="C46" t="n">
-        <v>47.98333333333333</v>
+        <v>50.38388834023028</v>
       </c>
     </row>
     <row r="47">
@@ -1072,10 +1072,10 @@
         </is>
       </c>
       <c r="B47" t="n">
-        <v>51.91290322580645</v>
+        <v>54.26047310473373</v>
       </c>
       <c r="C47" t="n">
-        <v>47.34838709677419</v>
+        <v>48.03980245102618</v>
       </c>
     </row>
     <row r="48">
@@ -1085,10 +1085,10 @@
         </is>
       </c>
       <c r="B48" t="n">
-        <v>53.37</v>
+        <v>55.3020488331361</v>
       </c>
       <c r="C48" t="n">
-        <v>48.64666666666667</v>
+        <v>49.20349504726927</v>
       </c>
     </row>
     <row r="49">
@@ -1098,10 +1098,10 @@
         </is>
       </c>
       <c r="B49" t="n">
-        <v>52.96129032258064</v>
+        <v>55.04383182278916</v>
       </c>
       <c r="C49" t="n">
-        <v>48.38387096774194</v>
+        <v>49.17561936856772</v>
       </c>
     </row>
     <row r="50">
@@ -1111,10 +1111,10 @@
         </is>
       </c>
       <c r="B50" t="n">
-        <v>55.13870967741936</v>
+        <v>55.69497039857745</v>
       </c>
       <c r="C50" t="n">
-        <v>48.98709677419355</v>
+        <v>49.53085651986673</v>
       </c>
     </row>
     <row r="51">
@@ -1124,10 +1124,10 @@
         </is>
       </c>
       <c r="B51" t="n">
-        <v>53.91071428571428</v>
+        <v>55.10836714080726</v>
       </c>
       <c r="C51" t="n">
-        <v>48.39285714285715</v>
+        <v>48.93639268099545</v>
       </c>
     </row>
     <row r="52">
@@ -1137,10 +1137,10 @@
         </is>
       </c>
       <c r="B52" t="n">
-        <v>49.95161290322581</v>
+        <v>54.46294264996084</v>
       </c>
       <c r="C52" t="n">
-        <v>45.94193548387097</v>
+        <v>48.47984808317688</v>
       </c>
     </row>
     <row r="53">
@@ -1150,10 +1150,10 @@
         </is>
       </c>
       <c r="B53" t="n">
-        <v>32.26</v>
+        <v>53.60098335173906</v>
       </c>
       <c r="C53" t="n">
-        <v>28.87</v>
+        <v>49.44413027004831</v>
       </c>
     </row>
     <row r="54">
@@ -1163,10 +1163,10 @@
         </is>
       </c>
       <c r="B54" t="n">
-        <v>55.56129032258065</v>
+        <v>56.70865347160814</v>
       </c>
       <c r="C54" t="n">
-        <v>48.60322580645161</v>
+        <v>50.36110861484994</v>
       </c>
     </row>
     <row r="55">
@@ -1176,10 +1176,10 @@
         </is>
       </c>
       <c r="B55" t="n">
-        <v>51.91999999999999</v>
+        <v>56.68114814565755</v>
       </c>
       <c r="C55" t="n">
-        <v>50.73333333333333</v>
+        <v>51.89201041004899</v>
       </c>
     </row>
     <row r="56">
@@ -1189,10 +1189,10 @@
         </is>
       </c>
       <c r="B56" t="n">
-        <v>56.27741935483871</v>
+        <v>57.69416994202616</v>
       </c>
       <c r="C56" t="n">
-        <v>51.65806451612904</v>
+        <v>52.39239590636012</v>
       </c>
     </row>
     <row r="57">
@@ -1202,10 +1202,10 @@
         </is>
       </c>
       <c r="B57" t="n">
-        <v>48.45806451612903</v>
+        <v>54.61023215563135</v>
       </c>
       <c r="C57" t="n">
-        <v>47.70322580645161</v>
+        <v>49.83383310528598</v>
       </c>
     </row>
     <row r="58">
@@ -1215,10 +1215,10 @@
         </is>
       </c>
       <c r="B58" t="n">
-        <v>52.53333333333333</v>
+        <v>56.68033231049496</v>
       </c>
       <c r="C58" t="n">
-        <v>49.76333333333334</v>
+        <v>51.37213206207036</v>
       </c>
     </row>
     <row r="59">
@@ -1228,10 +1228,10 @@
         </is>
       </c>
       <c r="B59" t="n">
-        <v>54.85806451612903</v>
+        <v>56.89807214494859</v>
       </c>
       <c r="C59" t="n">
-        <v>50.59354838709677</v>
+        <v>51.14577245783313</v>
       </c>
     </row>
     <row r="60">
@@ -1241,10 +1241,10 @@
         </is>
       </c>
       <c r="B60" t="n">
-        <v>48.77666666666666</v>
+        <v>54.12811908308693</v>
       </c>
       <c r="C60" t="n">
-        <v>45.88333333333333</v>
+        <v>48.01017800919536</v>
       </c>
     </row>
     <row r="61">
@@ -1254,10 +1254,10 @@
         </is>
       </c>
       <c r="B61" t="n">
-        <v>49.58064516129032</v>
+        <v>55.12801435213851</v>
       </c>
       <c r="C61" t="n">
-        <v>46.83225806451613</v>
+        <v>50.66065075572418</v>
       </c>
     </row>
     <row r="62">
@@ -1267,10 +1267,10 @@
         </is>
       </c>
       <c r="B62" t="n">
-        <v>52.95161290322581</v>
+        <v>55.45435304636481</v>
       </c>
       <c r="C62" t="n">
-        <v>46.99677419354839</v>
+        <v>50.42933163073887</v>
       </c>
     </row>
     <row r="63">
@@ -1280,10 +1280,10 @@
         </is>
       </c>
       <c r="B63" t="n">
-        <v>56.28214285714286</v>
+        <v>57.05886261293752</v>
       </c>
       <c r="C63" t="n">
-        <v>50.38571428571429</v>
+        <v>51.16879076640417</v>
       </c>
     </row>
     <row r="64">
@@ -1293,10 +1293,10 @@
         </is>
       </c>
       <c r="B64" t="n">
-        <v>54.07741935483871</v>
+        <v>56.68192685388626</v>
       </c>
       <c r="C64" t="n">
-        <v>48.39354838709678</v>
+        <v>51.04012208929657</v>
       </c>
     </row>
     <row r="65">
@@ -1306,10 +1306,10 @@
         </is>
       </c>
       <c r="B65" t="n">
-        <v>53.45666666666667</v>
+        <v>56.12121795048203</v>
       </c>
       <c r="C65" t="n">
-        <v>49.37</v>
+        <v>50.85140171124124</v>
       </c>
     </row>
     <row r="66">
@@ -1319,10 +1319,10 @@
         </is>
       </c>
       <c r="B66" t="n">
-        <v>51.69032258064517</v>
+        <v>55.17224463679469</v>
       </c>
       <c r="C66" t="n">
-        <v>48.40000000000001</v>
+        <v>49.96396657106295</v>
       </c>
     </row>
     <row r="67">
@@ -1332,10 +1332,10 @@
         </is>
       </c>
       <c r="B67" t="n">
-        <v>53.03</v>
+        <v>56.32561494142585</v>
       </c>
       <c r="C67" t="n">
-        <v>50.09666666666667</v>
+        <v>51.52002049784559</v>
       </c>
     </row>
     <row r="68">
@@ -1345,10 +1345,10 @@
         </is>
       </c>
       <c r="B68" t="n">
-        <v>57.03870967741936</v>
+        <v>57.82605330549546</v>
       </c>
       <c r="C68" t="n">
-        <v>52.59677419354838</v>
+        <v>53.35054320837436</v>
       </c>
     </row>
     <row r="69">
@@ -1358,10 +1358,10 @@
         </is>
       </c>
       <c r="B69" t="n">
-        <v>54.19677419354839</v>
+        <v>56.48753262193155</v>
       </c>
       <c r="C69" t="n">
-        <v>51.49354838709677</v>
+        <v>52.34416675848331</v>
       </c>
     </row>
     <row r="70">
@@ -1371,10 +1371,10 @@
         </is>
       </c>
       <c r="B70" t="n">
-        <v>52.84666666666667</v>
+        <v>56.24778140880147</v>
       </c>
       <c r="C70" t="n">
-        <v>49.09</v>
+        <v>51.34822240421702</v>
       </c>
     </row>
     <row r="71">
@@ -1384,10 +1384,10 @@
         </is>
       </c>
       <c r="B71" t="n">
-        <v>56.33870967741935</v>
+        <v>57.55161805705556</v>
       </c>
       <c r="C71" t="n">
-        <v>51.51612903225806</v>
+        <v>52.57458655527729</v>
       </c>
     </row>
     <row r="72">
@@ -1397,10 +1397,10 @@
         </is>
       </c>
       <c r="B72" t="n">
-        <v>53.28666666666666</v>
+        <v>56.26275821761403</v>
       </c>
       <c r="C72" t="n">
-        <v>47.58333333333334</v>
+        <v>50.91025078053181</v>
       </c>
     </row>
     <row r="73">
@@ -1410,10 +1410,10 @@
         </is>
       </c>
       <c r="B73" t="n">
-        <v>54.05806451612903</v>
+        <v>56.62805714991934</v>
       </c>
       <c r="C73" t="n">
-        <v>49.69677419354839</v>
+        <v>51.28667316893169</v>
       </c>
     </row>
     <row r="74">
@@ -1423,10 +1423,10 @@
         </is>
       </c>
       <c r="B74" t="n">
-        <v>51.64516129032258</v>
+        <v>55.72873084853946</v>
       </c>
       <c r="C74" t="n">
-        <v>46.67096774193548</v>
+        <v>50.42172812263806</v>
       </c>
     </row>
     <row r="75">
@@ -1436,10 +1436,10 @@
         </is>
       </c>
       <c r="B75" t="n">
-        <v>48.22068965517241</v>
+        <v>51.8328808259291</v>
       </c>
       <c r="C75" t="n">
-        <v>37.07586206896552</v>
+        <v>44.74340423405338</v>
       </c>
     </row>
     <row r="76">
@@ -1449,10 +1449,10 @@
         </is>
       </c>
       <c r="B76" t="n">
-        <v>51.48387096774194</v>
+        <v>54.49233310081031</v>
       </c>
       <c r="C76" t="n">
-        <v>48.37419354838709</v>
+        <v>49.99870578898562</v>
       </c>
     </row>
     <row r="77">
@@ -1462,10 +1462,10 @@
         </is>
       </c>
       <c r="B77" t="n">
-        <v>55.03333333333333</v>
+        <v>57.37559472938401</v>
       </c>
       <c r="C77" t="n">
-        <v>50.77</v>
+        <v>51.77353149372092</v>
       </c>
     </row>
   </sheetData>
